--- a/public/order/order-status-import.xlsx
+++ b/public/order/order-status-import.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11771818-3880-43DD-915A-6540D03EBF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1146C1A0-6D04-4E67-A049-E48CEBBC62F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,15 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Código de Orden</t>
+    <t>Código</t>
   </si>
   <si>
-    <t>Estado de Orden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -67,14 +64,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -372,20 +374,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
